--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1516,6 +1551,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1559,6 +1595,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1814,6 +1857,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1855,6 +1899,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,6 +1943,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1933,6 +1979,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,6 +2015,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1995,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2003,6 +2051,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2030,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2038,6 +2087,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2073,6 +2123,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2100,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2108,6 +2159,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2135,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2143,6 +2195,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2178,6 +2231,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2213,6 +2267,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2248,6 +2303,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2275,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2283,6 +2339,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2318,6 +2375,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2345,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2353,6 +2411,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2380,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2388,6 +2447,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2423,6 +2483,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2458,6 +2519,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2493,6 +2555,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,6 +2591,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2555,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2563,6 +2627,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2598,6 +2663,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2625,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2633,6 +2699,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2668,6 +2735,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2695,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2703,6 +2771,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2730,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2738,6 +2807,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2773,6 +2843,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2808,6 +2879,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2843,6 +2915,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2878,6 +2951,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2913,6 +2987,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2948,6 +3023,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2983,6 +3059,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3018,6 +3095,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3053,6 +3131,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3088,6 +3167,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3123,6 +3203,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3158,6 +3239,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3193,6 +3275,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3228,6 +3311,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3263,6 +3347,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3298,6 +3383,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3333,6 +3419,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3368,6 +3455,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3403,6 +3491,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3438,6 +3527,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3473,6 +3563,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3508,6 +3599,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3543,6 +3635,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3578,6 +3671,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3613,6 +3707,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3648,6 +3743,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3683,6 +3779,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3718,6 +3815,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3753,6 +3851,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3788,6 +3887,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3823,6 +3923,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3858,6 +3959,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3893,6 +3995,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3928,6 +4031,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3963,6 +4067,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3998,6 +4103,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4033,6 +4139,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4068,6 +4175,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4103,6 +4211,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4138,6 +4247,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4173,6 +4283,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4208,6 +4319,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4243,6 +4355,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4278,6 +4391,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4313,6 +4427,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4348,6 +4463,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4383,6 +4499,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4418,6 +4535,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4453,6 +4571,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4488,6 +4607,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4523,6 +4643,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4558,6 +4679,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4593,6 +4715,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4628,6 +4751,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4663,6 +4787,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4698,6 +4823,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4733,6 +4859,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4768,6 +4895,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4803,6 +4931,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4838,6 +4967,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4873,6 +5003,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4908,6 +5039,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F2" t="n">
-        <v>331.9897</v>
+        <v>0.0001</v>
       </c>
       <c r="G2" t="n">
-        <v>-6301538.768100001</v>
+        <v>-3763713.3452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.9</v>
+        <v>1.917</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9</v>
+        <v>1.917</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9</v>
+        <v>1.917</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9</v>
+        <v>1.917</v>
       </c>
       <c r="F3" t="n">
-        <v>63613.3847</v>
+        <v>260</v>
       </c>
       <c r="G3" t="n">
-        <v>-6301538.768100001</v>
+        <v>-3763453.3452</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9</v>
+        <v>1.895</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9</v>
+        <v>1.895</v>
       </c>
       <c r="F4" t="n">
-        <v>37706.6262</v>
+        <v>1442158.042</v>
       </c>
       <c r="G4" t="n">
-        <v>-6301538.768100001</v>
+        <v>-5205611.3872</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="C5" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="D5" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="E5" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="F5" t="n">
-        <v>33564.9893</v>
+        <v>51346.3186</v>
       </c>
       <c r="G5" t="n">
-        <v>-6267973.778800001</v>
+        <v>-5205611.3872</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="C6" t="n">
-        <v>1.92</v>
+        <v>1.893</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92</v>
+        <v>1.896</v>
       </c>
       <c r="E6" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="F6" t="n">
-        <v>1061517.4927</v>
+        <v>17640.9051</v>
       </c>
       <c r="G6" t="n">
-        <v>-5206456.286100001</v>
+        <v>-5223252.2923</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.93</v>
+        <v>1.893</v>
       </c>
       <c r="C7" t="n">
-        <v>1.93</v>
+        <v>1.893</v>
       </c>
       <c r="D7" t="n">
-        <v>1.93</v>
+        <v>1.893</v>
       </c>
       <c r="E7" t="n">
-        <v>1.93</v>
+        <v>1.893</v>
       </c>
       <c r="F7" t="n">
-        <v>23989.3541</v>
+        <v>11301.9577</v>
       </c>
       <c r="G7" t="n">
-        <v>-5182466.932000001</v>
+        <v>-5223252.2923</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.931</v>
+        <v>1.908</v>
       </c>
       <c r="C8" t="n">
-        <v>1.932</v>
+        <v>1.908</v>
       </c>
       <c r="D8" t="n">
-        <v>1.932</v>
+        <v>1.908</v>
       </c>
       <c r="E8" t="n">
-        <v>1.931</v>
+        <v>1.908</v>
       </c>
       <c r="F8" t="n">
-        <v>18938.2994</v>
+        <v>104178.1458</v>
       </c>
       <c r="G8" t="n">
-        <v>-5163528.632600001</v>
+        <v>-5119074.1465</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.932</v>
+        <v>1.908</v>
       </c>
       <c r="C9" t="n">
-        <v>1.932</v>
+        <v>1.908</v>
       </c>
       <c r="D9" t="n">
-        <v>1.932</v>
+        <v>1.908</v>
       </c>
       <c r="E9" t="n">
-        <v>1.932</v>
+        <v>1.908</v>
       </c>
       <c r="F9" t="n">
-        <v>94417.2064</v>
+        <v>48215.7828</v>
       </c>
       <c r="G9" t="n">
-        <v>-5163528.632600001</v>
+        <v>-5119074.1465</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="C10" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="D10" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="E10" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="F10" t="n">
-        <v>29513.8541</v>
+        <v>22225.996</v>
       </c>
       <c r="G10" t="n">
-        <v>-5163528.632600001</v>
+        <v>-5096848.1505</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="C11" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="D11" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="E11" t="n">
-        <v>1.932</v>
+        <v>1.909</v>
       </c>
       <c r="F11" t="n">
-        <v>17457.3933</v>
+        <v>18926.5526</v>
       </c>
       <c r="G11" t="n">
-        <v>-5163528.632600001</v>
+        <v>-5096848.1505</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.932</v>
+        <v>1.9</v>
       </c>
       <c r="C12" t="n">
-        <v>1.932</v>
+        <v>1.9</v>
       </c>
       <c r="D12" t="n">
-        <v>1.932</v>
+        <v>1.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1.932</v>
+        <v>1.9</v>
       </c>
       <c r="F12" t="n">
-        <v>19030.2453</v>
+        <v>1112554.62</v>
       </c>
       <c r="G12" t="n">
-        <v>-5163528.632600001</v>
+        <v>-6209402.7705</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.932</v>
+        <v>1.899</v>
       </c>
       <c r="C13" t="n">
-        <v>1.932</v>
+        <v>1.898</v>
       </c>
       <c r="D13" t="n">
-        <v>1.932</v>
+        <v>1.899</v>
       </c>
       <c r="E13" t="n">
-        <v>1.932</v>
+        <v>1.898</v>
       </c>
       <c r="F13" t="n">
-        <v>464500.304</v>
+        <v>32445.38</v>
       </c>
       <c r="G13" t="n">
-        <v>-5163528.632600001</v>
+        <v>-6241848.1505</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="C14" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="D14" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="E14" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="F14" t="n">
-        <v>5908.3029</v>
+        <v>264</v>
       </c>
       <c r="G14" t="n">
-        <v>-5157620.329700002</v>
+        <v>-6241584.1505</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="C15" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="D15" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="E15" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="F15" t="n">
-        <v>24401.423</v>
+        <v>260</v>
       </c>
       <c r="G15" t="n">
-        <v>-5157620.329700002</v>
+        <v>-6241584.1505</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="C16" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="D16" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="E16" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="F16" t="n">
-        <v>21892.8378</v>
+        <v>200000</v>
       </c>
       <c r="G16" t="n">
-        <v>-5135727.491900002</v>
+        <v>-6441584.1505</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,32 +978,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.915</v>
+        <v>1.901</v>
       </c>
       <c r="C17" t="n">
-        <v>1.915</v>
+        <v>1.909</v>
       </c>
       <c r="D17" t="n">
-        <v>1.915</v>
+        <v>1.909</v>
       </c>
       <c r="E17" t="n">
-        <v>1.915</v>
+        <v>1.893</v>
       </c>
       <c r="F17" t="n">
-        <v>11610.3275</v>
+        <v>383012.6238</v>
       </c>
       <c r="G17" t="n">
-        <v>-5147337.819400001</v>
+        <v>-6058571.526699999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1.901</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.934</v>
+        <v>1.909</v>
       </c>
       <c r="C18" t="n">
-        <v>1.934</v>
+        <v>1.909</v>
       </c>
       <c r="D18" t="n">
-        <v>1.934</v>
+        <v>1.909</v>
       </c>
       <c r="E18" t="n">
-        <v>1.934</v>
+        <v>1.909</v>
       </c>
       <c r="F18" t="n">
-        <v>28779.3512</v>
+        <v>49993.0411</v>
       </c>
       <c r="G18" t="n">
-        <v>-5118558.468200001</v>
+        <v>-6058571.526699999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1045,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1060,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="C19" t="n">
-        <v>1.934</v>
+        <v>1.898</v>
       </c>
       <c r="D19" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="E19" t="n">
-        <v>1.934</v>
+        <v>1.898</v>
       </c>
       <c r="F19" t="n">
-        <v>27610.2694</v>
+        <v>133726.0849</v>
       </c>
       <c r="G19" t="n">
-        <v>-5118558.468200001</v>
+        <v>-6192297.611599999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1085,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1100,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.934</v>
+        <v>1.897</v>
       </c>
       <c r="C20" t="n">
-        <v>1.934</v>
+        <v>1.896</v>
       </c>
       <c r="D20" t="n">
-        <v>1.934</v>
+        <v>1.897</v>
       </c>
       <c r="E20" t="n">
-        <v>1.934</v>
+        <v>1.896</v>
       </c>
       <c r="F20" t="n">
-        <v>43207.4831</v>
+        <v>40930.5071</v>
       </c>
       <c r="G20" t="n">
-        <v>-5118558.468200001</v>
+        <v>-6233228.1187</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1125,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1140,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.934</v>
+        <v>1.895</v>
       </c>
       <c r="C21" t="n">
-        <v>1.934</v>
+        <v>1.894</v>
       </c>
       <c r="D21" t="n">
-        <v>1.934</v>
+        <v>1.895</v>
       </c>
       <c r="E21" t="n">
-        <v>1.934</v>
+        <v>1.894</v>
       </c>
       <c r="F21" t="n">
-        <v>21019.528</v>
+        <v>253427.7214</v>
       </c>
       <c r="G21" t="n">
-        <v>-5118558.468200001</v>
+        <v>-6486655.8401</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1.896</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1182,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.934</v>
+        <v>1.893</v>
       </c>
       <c r="C22" t="n">
-        <v>1.934</v>
+        <v>1.893</v>
       </c>
       <c r="D22" t="n">
-        <v>1.934</v>
+        <v>1.893</v>
       </c>
       <c r="E22" t="n">
-        <v>1.934</v>
+        <v>1.893</v>
       </c>
       <c r="F22" t="n">
-        <v>117928.0194</v>
+        <v>14711.3194</v>
       </c>
       <c r="G22" t="n">
-        <v>-5118558.468200001</v>
+        <v>-6501367.1595</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1.894</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1224,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.916</v>
+        <v>1.894</v>
       </c>
       <c r="C23" t="n">
-        <v>1.916</v>
+        <v>1.894</v>
       </c>
       <c r="D23" t="n">
-        <v>1.916</v>
+        <v>1.894</v>
       </c>
       <c r="E23" t="n">
-        <v>1.916</v>
+        <v>1.894</v>
       </c>
       <c r="F23" t="n">
-        <v>50000</v>
+        <v>184372.5131</v>
       </c>
       <c r="G23" t="n">
-        <v>-5168558.468200001</v>
+        <v>-6316994.6464</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.893</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1266,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="C24" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27527.0682</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-6289467.5782</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1.894</v>
       </c>
-      <c r="D24" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1939599.9552</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-7108158.423400001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1308,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="C25" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="D25" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="E25" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="F25" t="n">
-        <v>22090</v>
+        <v>26028.7327</v>
       </c>
       <c r="G25" t="n">
-        <v>-7086068.423400001</v>
+        <v>-6315496.3109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.909</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1350,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="C26" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="D26" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="E26" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="F26" t="n">
-        <v>380546.3704</v>
+        <v>259</v>
       </c>
       <c r="G26" t="n">
-        <v>-7086068.423400001</v>
+        <v>-6315237.3109</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1.895</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1392,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="C27" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="D27" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="E27" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="F27" t="n">
-        <v>20638.0323</v>
+        <v>1040.9598</v>
       </c>
       <c r="G27" t="n">
-        <v>-7065430.391100001</v>
+        <v>-6316278.2707</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1417,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1432,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.915</v>
+        <v>1.896</v>
       </c>
       <c r="C28" t="n">
-        <v>1.915</v>
+        <v>1.895</v>
       </c>
       <c r="D28" t="n">
-        <v>1.915</v>
+        <v>1.896</v>
       </c>
       <c r="E28" t="n">
-        <v>1.915</v>
+        <v>1.895</v>
       </c>
       <c r="F28" t="n">
-        <v>19413.4135</v>
+        <v>18549.6204</v>
       </c>
       <c r="G28" t="n">
-        <v>-7046016.977600001</v>
+        <v>-6334827.891100001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1457,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,7 +1472,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.915</v>
+        <v>1.909</v>
       </c>
       <c r="C29" t="n">
         <v>1.915</v>
@@ -1419,13 +1481,13 @@
         <v>1.915</v>
       </c>
       <c r="E29" t="n">
-        <v>1.915</v>
+        <v>1.909</v>
       </c>
       <c r="F29" t="n">
-        <v>15690.2547</v>
+        <v>56943.3871</v>
       </c>
       <c r="G29" t="n">
-        <v>-7046016.977600001</v>
+        <v>-6277884.504000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1497,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1512,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="C30" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="D30" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="E30" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="F30" t="n">
-        <v>18995.7491</v>
+        <v>23654.2641</v>
       </c>
       <c r="G30" t="n">
-        <v>-7046016.977600001</v>
+        <v>-6301538.768100001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1537,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1552,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="C31" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="D31" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="E31" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="F31" t="n">
-        <v>547036.6609</v>
+        <v>331.9897</v>
       </c>
       <c r="G31" t="n">
-        <v>-6498980.3167</v>
+        <v>-6301538.768100001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1577,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,36 +1592,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="C32" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="D32" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="E32" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="F32" t="n">
-        <v>472989.2197</v>
+        <v>63613.3847</v>
       </c>
       <c r="G32" t="n">
-        <v>-6498980.3167</v>
+        <v>-6301538.768100001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1558,38 +1632,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F33" t="n">
-        <v>56216.2765</v>
+        <v>37706.6262</v>
       </c>
       <c r="G33" t="n">
-        <v>-6555196.5932</v>
+        <v>-6301538.768100001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.917</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1602,22 +1672,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="C34" t="n">
-        <v>1.933</v>
+        <v>1.91</v>
       </c>
       <c r="D34" t="n">
-        <v>1.933</v>
+        <v>1.91</v>
       </c>
       <c r="E34" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="F34" t="n">
-        <v>24620.0896</v>
+        <v>33564.9893</v>
       </c>
       <c r="G34" t="n">
-        <v>-6530576.5036</v>
+        <v>-6267973.778800001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,12 +1696,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1.917</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1644,22 +1712,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.933</v>
+        <v>1.91</v>
       </c>
       <c r="C35" t="n">
-        <v>1.933</v>
+        <v>1.92</v>
       </c>
       <c r="D35" t="n">
-        <v>1.933</v>
+        <v>1.92</v>
       </c>
       <c r="E35" t="n">
-        <v>1.933</v>
+        <v>1.91</v>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>1061517.4927</v>
       </c>
       <c r="G35" t="n">
-        <v>-6530576.5036</v>
+        <v>-5206456.286100001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1669,7 +1737,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1752,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.933</v>
+        <v>1.93</v>
       </c>
       <c r="C36" t="n">
-        <v>1.934</v>
+        <v>1.93</v>
       </c>
       <c r="D36" t="n">
-        <v>1.934</v>
+        <v>1.93</v>
       </c>
       <c r="E36" t="n">
-        <v>1.933</v>
+        <v>1.93</v>
       </c>
       <c r="F36" t="n">
-        <v>167022.569</v>
+        <v>23989.3541</v>
       </c>
       <c r="G36" t="n">
-        <v>-6363553.9346</v>
+        <v>-5182466.932000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1705,7 +1777,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1716,22 +1792,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.933</v>
+        <v>1.931</v>
       </c>
       <c r="C37" t="n">
-        <v>1.933</v>
+        <v>1.932</v>
       </c>
       <c r="D37" t="n">
-        <v>1.933</v>
+        <v>1.932</v>
       </c>
       <c r="E37" t="n">
-        <v>1.933</v>
+        <v>1.931</v>
       </c>
       <c r="F37" t="n">
-        <v>12190.2916</v>
+        <v>18938.2994</v>
       </c>
       <c r="G37" t="n">
-        <v>-6375744.2262</v>
+        <v>-5163528.632600001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1741,7 +1817,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1752,22 +1832,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.933</v>
+        <v>1.932</v>
       </c>
       <c r="C38" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="D38" t="n">
-        <v>1.933</v>
+        <v>1.932</v>
       </c>
       <c r="E38" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="F38" t="n">
-        <v>1000000</v>
+        <v>94417.2064</v>
       </c>
       <c r="G38" t="n">
-        <v>-7375744.2262</v>
+        <v>-5163528.632600001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1777,7 +1857,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1788,22 +1872,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.92</v>
+        <v>1.932</v>
       </c>
       <c r="C39" t="n">
-        <v>1.9</v>
+        <v>1.932</v>
       </c>
       <c r="D39" t="n">
-        <v>1.929</v>
+        <v>1.932</v>
       </c>
       <c r="E39" t="n">
-        <v>1.9</v>
+        <v>1.932</v>
       </c>
       <c r="F39" t="n">
-        <v>349787.9705</v>
+        <v>29513.8541</v>
       </c>
       <c r="G39" t="n">
-        <v>-7725532.1967</v>
+        <v>-5163528.632600001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1813,7 +1897,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1824,36 +1912,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.929</v>
+        <v>1.932</v>
       </c>
       <c r="C40" t="n">
-        <v>1.93</v>
+        <v>1.932</v>
       </c>
       <c r="D40" t="n">
-        <v>1.93</v>
+        <v>1.932</v>
       </c>
       <c r="E40" t="n">
-        <v>1.929</v>
+        <v>1.932</v>
       </c>
       <c r="F40" t="n">
-        <v>29762.4322</v>
+        <v>17457.3933</v>
       </c>
       <c r="G40" t="n">
-        <v>-7695769.764500001</v>
+        <v>-5163528.632600001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1864,22 +1952,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.93</v>
+        <v>1.932</v>
       </c>
       <c r="C41" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="D41" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="E41" t="n">
-        <v>1.93</v>
+        <v>1.932</v>
       </c>
       <c r="F41" t="n">
-        <v>92466.4883</v>
+        <v>19030.2453</v>
       </c>
       <c r="G41" t="n">
-        <v>-7603303.2762</v>
+        <v>-5163528.632600001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1888,12 +1976,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1906,38 +1992,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="C42" t="n">
-        <v>1.946</v>
+        <v>1.932</v>
       </c>
       <c r="D42" t="n">
-        <v>1.946</v>
+        <v>1.932</v>
       </c>
       <c r="E42" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="F42" t="n">
-        <v>695063.0094</v>
+        <v>464500.304</v>
       </c>
       <c r="G42" t="n">
-        <v>-6908240.2668</v>
+        <v>-5163528.632600001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1950,22 +2032,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.947</v>
+        <v>1.933</v>
       </c>
       <c r="C43" t="n">
-        <v>1.973</v>
+        <v>1.933</v>
       </c>
       <c r="D43" t="n">
-        <v>1.973</v>
+        <v>1.933</v>
       </c>
       <c r="E43" t="n">
-        <v>1.947</v>
+        <v>1.933</v>
       </c>
       <c r="F43" t="n">
-        <v>469674.3971</v>
+        <v>5908.3029</v>
       </c>
       <c r="G43" t="n">
-        <v>-6438565.869700001</v>
+        <v>-5157620.329700002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1975,7 +2057,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2072,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.972</v>
+        <v>1.933</v>
       </c>
       <c r="C44" t="n">
-        <v>1.972</v>
+        <v>1.933</v>
       </c>
       <c r="D44" t="n">
-        <v>1.972</v>
+        <v>1.933</v>
       </c>
       <c r="E44" t="n">
-        <v>1.972</v>
+        <v>1.933</v>
       </c>
       <c r="F44" t="n">
-        <v>32802.231237322</v>
+        <v>24401.423</v>
       </c>
       <c r="G44" t="n">
-        <v>-6471368.100937323</v>
+        <v>-5157620.329700002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2011,7 +2097,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2112,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.972</v>
+        <v>1.934</v>
       </c>
       <c r="C45" t="n">
-        <v>1.972</v>
+        <v>1.934</v>
       </c>
       <c r="D45" t="n">
-        <v>1.972</v>
+        <v>1.934</v>
       </c>
       <c r="E45" t="n">
-        <v>1.972</v>
+        <v>1.934</v>
       </c>
       <c r="F45" t="n">
-        <v>32556.795131845</v>
+        <v>21892.8378</v>
       </c>
       <c r="G45" t="n">
-        <v>-6471368.100937323</v>
+        <v>-5135727.491900002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2152,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.972</v>
+        <v>1.915</v>
       </c>
       <c r="C46" t="n">
-        <v>1.972</v>
+        <v>1.915</v>
       </c>
       <c r="D46" t="n">
-        <v>1.972</v>
+        <v>1.915</v>
       </c>
       <c r="E46" t="n">
-        <v>1.972</v>
+        <v>1.915</v>
       </c>
       <c r="F46" t="n">
-        <v>524.9831</v>
+        <v>11610.3275</v>
       </c>
       <c r="G46" t="n">
-        <v>-6471368.100937323</v>
+        <v>-5147337.819400001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2192,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.972</v>
+        <v>1.934</v>
       </c>
       <c r="C47" t="n">
-        <v>1.973</v>
+        <v>1.934</v>
       </c>
       <c r="D47" t="n">
-        <v>1.973</v>
+        <v>1.934</v>
       </c>
       <c r="E47" t="n">
-        <v>1.972</v>
+        <v>1.934</v>
       </c>
       <c r="F47" t="n">
-        <v>1184765.5893</v>
+        <v>28779.3512</v>
       </c>
       <c r="G47" t="n">
-        <v>-5286602.511637323</v>
+        <v>-5118558.468200001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2119,7 +2217,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2232,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.973</v>
+        <v>1.934</v>
       </c>
       <c r="C48" t="n">
-        <v>1.989</v>
+        <v>1.934</v>
       </c>
       <c r="D48" t="n">
-        <v>1.989</v>
+        <v>1.934</v>
       </c>
       <c r="E48" t="n">
-        <v>1.973</v>
+        <v>1.934</v>
       </c>
       <c r="F48" t="n">
-        <v>924541.3485</v>
+        <v>27610.2694</v>
       </c>
       <c r="G48" t="n">
-        <v>-4362061.163137322</v>
+        <v>-5118558.468200001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2272,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.989</v>
+        <v>1.934</v>
       </c>
       <c r="C49" t="n">
-        <v>1.986</v>
+        <v>1.934</v>
       </c>
       <c r="D49" t="n">
-        <v>1.989</v>
+        <v>1.934</v>
       </c>
       <c r="E49" t="n">
-        <v>1.986</v>
+        <v>1.934</v>
       </c>
       <c r="F49" t="n">
-        <v>149439</v>
+        <v>43207.4831</v>
       </c>
       <c r="G49" t="n">
-        <v>-4511500.163137322</v>
+        <v>-5118558.468200001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2312,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.96</v>
+        <v>1.934</v>
       </c>
       <c r="C50" t="n">
-        <v>1.96</v>
+        <v>1.934</v>
       </c>
       <c r="D50" t="n">
-        <v>1.96</v>
+        <v>1.934</v>
       </c>
       <c r="E50" t="n">
-        <v>1.96</v>
+        <v>1.934</v>
       </c>
       <c r="F50" t="n">
-        <v>20591.1498</v>
+        <v>21019.528</v>
       </c>
       <c r="G50" t="n">
-        <v>-4532091.312937322</v>
+        <v>-5118558.468200001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2352,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.95</v>
+        <v>1.934</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9</v>
+        <v>1.934</v>
       </c>
       <c r="D51" t="n">
-        <v>1.95</v>
+        <v>1.934</v>
       </c>
       <c r="E51" t="n">
-        <v>1.9</v>
+        <v>1.934</v>
       </c>
       <c r="F51" t="n">
-        <v>165000</v>
+        <v>117928.0194</v>
       </c>
       <c r="G51" t="n">
-        <v>-4697091.312937322</v>
+        <v>-5118558.468200001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2263,7 +2377,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2392,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.969</v>
+        <v>1.916</v>
       </c>
       <c r="C52" t="n">
-        <v>1.969</v>
+        <v>1.916</v>
       </c>
       <c r="D52" t="n">
-        <v>1.969</v>
+        <v>1.916</v>
       </c>
       <c r="E52" t="n">
-        <v>1.969</v>
+        <v>1.916</v>
       </c>
       <c r="F52" t="n">
-        <v>21812.4599</v>
+        <v>50000</v>
       </c>
       <c r="G52" t="n">
-        <v>-4675278.853037322</v>
+        <v>-5168558.468200001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2299,7 +2417,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2432,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.968</v>
+        <v>1.916</v>
       </c>
       <c r="C53" t="n">
-        <v>1.968</v>
+        <v>1.894</v>
       </c>
       <c r="D53" t="n">
-        <v>1.968</v>
+        <v>1.916</v>
       </c>
       <c r="E53" t="n">
-        <v>1.968</v>
+        <v>1.894</v>
       </c>
       <c r="F53" t="n">
-        <v>25278.0587</v>
+        <v>1939599.9552</v>
       </c>
       <c r="G53" t="n">
-        <v>-4700556.911737322</v>
+        <v>-7108158.423400001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2472,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.95</v>
+        <v>1.901</v>
       </c>
       <c r="C54" t="n">
-        <v>1.95</v>
+        <v>1.901</v>
       </c>
       <c r="D54" t="n">
-        <v>1.95</v>
+        <v>1.901</v>
       </c>
       <c r="E54" t="n">
-        <v>1.95</v>
+        <v>1.901</v>
       </c>
       <c r="F54" t="n">
-        <v>20295.4339</v>
+        <v>22090</v>
       </c>
       <c r="G54" t="n">
-        <v>-4720852.345637321</v>
+        <v>-7086068.423400001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2512,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.936</v>
+        <v>1.901</v>
       </c>
       <c r="C55" t="n">
-        <v>1.96</v>
+        <v>1.901</v>
       </c>
       <c r="D55" t="n">
-        <v>1.96</v>
+        <v>1.901</v>
       </c>
       <c r="E55" t="n">
-        <v>1.936</v>
+        <v>1.901</v>
       </c>
       <c r="F55" t="n">
-        <v>159250.842</v>
+        <v>380546.3704</v>
       </c>
       <c r="G55" t="n">
-        <v>-4561601.503637321</v>
+        <v>-7086068.423400001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2552,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="C56" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="D56" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="E56" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="F56" t="n">
-        <v>61108.3963</v>
+        <v>20638.0323</v>
       </c>
       <c r="G56" t="n">
-        <v>-4622709.899937321</v>
+        <v>-7065430.391100001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2592,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="C57" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="D57" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="E57" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="F57" t="n">
-        <v>52403.5302</v>
+        <v>19413.4135</v>
       </c>
       <c r="G57" t="n">
-        <v>-4675113.430137321</v>
+        <v>-7046016.977600001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2479,7 +2617,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2632,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.939</v>
+        <v>1.915</v>
       </c>
       <c r="C58" t="n">
-        <v>1.939</v>
+        <v>1.915</v>
       </c>
       <c r="D58" t="n">
-        <v>1.939</v>
+        <v>1.915</v>
       </c>
       <c r="E58" t="n">
-        <v>1.939</v>
+        <v>1.915</v>
       </c>
       <c r="F58" t="n">
-        <v>207032.2092</v>
+        <v>15690.2547</v>
       </c>
       <c r="G58" t="n">
-        <v>-4468081.220937321</v>
+        <v>-7046016.977600001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2515,7 +2657,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2672,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.966</v>
+        <v>1.915</v>
       </c>
       <c r="C59" t="n">
-        <v>1.966</v>
+        <v>1.915</v>
       </c>
       <c r="D59" t="n">
-        <v>1.966</v>
+        <v>1.915</v>
       </c>
       <c r="E59" t="n">
-        <v>1.966</v>
+        <v>1.915</v>
       </c>
       <c r="F59" t="n">
-        <v>253</v>
+        <v>18995.7491</v>
       </c>
       <c r="G59" t="n">
-        <v>-4467828.220937321</v>
+        <v>-7046016.977600001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2551,7 +2697,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2712,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.94</v>
+        <v>1.915</v>
       </c>
       <c r="C60" t="n">
-        <v>1.94</v>
+        <v>1.917</v>
       </c>
       <c r="D60" t="n">
-        <v>1.94</v>
+        <v>1.917</v>
       </c>
       <c r="E60" t="n">
-        <v>1.94</v>
+        <v>1.915</v>
       </c>
       <c r="F60" t="n">
-        <v>12179.1488</v>
+        <v>547036.6609</v>
       </c>
       <c r="G60" t="n">
-        <v>-4480007.369737321</v>
+        <v>-6498980.3167</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2752,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.96</v>
+        <v>1.917</v>
       </c>
       <c r="C61" t="n">
-        <v>1.96</v>
+        <v>1.917</v>
       </c>
       <c r="D61" t="n">
-        <v>1.96</v>
+        <v>1.917</v>
       </c>
       <c r="E61" t="n">
-        <v>1.96</v>
+        <v>1.917</v>
       </c>
       <c r="F61" t="n">
-        <v>253</v>
+        <v>472989.2197</v>
       </c>
       <c r="G61" t="n">
-        <v>-4479754.369737321</v>
+        <v>-6498980.3167</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2792,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.959</v>
+        <v>1.91</v>
       </c>
       <c r="C62" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="D62" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="E62" t="n">
-        <v>1.959</v>
+        <v>1.91</v>
       </c>
       <c r="F62" t="n">
-        <v>391082.9558</v>
+        <v>56216.2765</v>
       </c>
       <c r="G62" t="n">
-        <v>-4479754.369737321</v>
+        <v>-6555196.5932</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +2832,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="C63" t="n">
-        <v>1.94</v>
+        <v>1.933</v>
       </c>
       <c r="D63" t="n">
-        <v>1.94</v>
+        <v>1.933</v>
       </c>
       <c r="E63" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="F63" t="n">
-        <v>20429.0226</v>
+        <v>24620.0896</v>
       </c>
       <c r="G63" t="n">
-        <v>-4500183.39233732</v>
+        <v>-6530576.5036</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2872,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.94</v>
+        <v>1.933</v>
       </c>
       <c r="C64" t="n">
-        <v>1.94</v>
+        <v>1.933</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94</v>
+        <v>1.933</v>
       </c>
       <c r="E64" t="n">
-        <v>1.94</v>
+        <v>1.933</v>
       </c>
       <c r="F64" t="n">
-        <v>20022.231</v>
+        <v>2500</v>
       </c>
       <c r="G64" t="n">
-        <v>-4500183.39233732</v>
+        <v>-6530576.5036</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2731,7 +2897,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2742,32 +2912,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.959</v>
+        <v>1.933</v>
       </c>
       <c r="C65" t="n">
-        <v>1.959</v>
+        <v>1.934</v>
       </c>
       <c r="D65" t="n">
-        <v>1.959</v>
+        <v>1.934</v>
       </c>
       <c r="E65" t="n">
-        <v>1.959</v>
+        <v>1.933</v>
       </c>
       <c r="F65" t="n">
-        <v>255</v>
+        <v>167022.569</v>
       </c>
       <c r="G65" t="n">
-        <v>-4499928.39233732</v>
+        <v>-6363553.9346</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +2952,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.926</v>
+        <v>1.933</v>
       </c>
       <c r="C66" t="n">
-        <v>1.926</v>
+        <v>1.933</v>
       </c>
       <c r="D66" t="n">
-        <v>1.926</v>
+        <v>1.933</v>
       </c>
       <c r="E66" t="n">
-        <v>1.926</v>
+        <v>1.933</v>
       </c>
       <c r="F66" t="n">
-        <v>22828.9079</v>
+        <v>12190.2916</v>
       </c>
       <c r="G66" t="n">
-        <v>-4522757.30023732</v>
+        <v>-6375744.2262</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2992,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.926</v>
+        <v>1.933</v>
       </c>
       <c r="C67" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="D67" t="n">
-        <v>1.926</v>
+        <v>1.933</v>
       </c>
       <c r="E67" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="F67" t="n">
-        <v>170484.9431</v>
+        <v>1000000</v>
       </c>
       <c r="G67" t="n">
-        <v>-4522757.30023732</v>
+        <v>-7375744.2262</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2839,7 +3017,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3032,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.926</v>
+        <v>1.92</v>
       </c>
       <c r="C68" t="n">
-        <v>1.926</v>
+        <v>1.9</v>
       </c>
       <c r="D68" t="n">
-        <v>1.926</v>
+        <v>1.929</v>
       </c>
       <c r="E68" t="n">
-        <v>1.926</v>
+        <v>1.9</v>
       </c>
       <c r="F68" t="n">
-        <v>50000</v>
+        <v>349787.9705</v>
       </c>
       <c r="G68" t="n">
-        <v>-4522757.30023732</v>
+        <v>-7725532.1967</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2875,7 +3057,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3072,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.926</v>
+        <v>1.929</v>
       </c>
       <c r="C69" t="n">
-        <v>1.925</v>
+        <v>1.93</v>
       </c>
       <c r="D69" t="n">
-        <v>1.926</v>
+        <v>1.93</v>
       </c>
       <c r="E69" t="n">
-        <v>1.925</v>
+        <v>1.929</v>
       </c>
       <c r="F69" t="n">
-        <v>304560.2326</v>
+        <v>29762.4322</v>
       </c>
       <c r="G69" t="n">
-        <v>-4827317.53283732</v>
+        <v>-7695769.764500001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2911,7 +3097,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3112,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.948</v>
+        <v>1.93</v>
       </c>
       <c r="C70" t="n">
-        <v>1.948</v>
+        <v>1.94</v>
       </c>
       <c r="D70" t="n">
-        <v>1.948</v>
+        <v>1.94</v>
       </c>
       <c r="E70" t="n">
-        <v>1.948</v>
+        <v>1.93</v>
       </c>
       <c r="F70" t="n">
-        <v>41306.1348</v>
+        <v>92466.4883</v>
       </c>
       <c r="G70" t="n">
-        <v>-4786011.39803732</v>
+        <v>-7603303.2762</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2947,7 +3137,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3152,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="C71" t="n">
-        <v>1.91</v>
+        <v>1.946</v>
       </c>
       <c r="D71" t="n">
-        <v>1.91</v>
+        <v>1.946</v>
       </c>
       <c r="E71" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="F71" t="n">
-        <v>1257.8716</v>
+        <v>695063.0094</v>
       </c>
       <c r="G71" t="n">
-        <v>-4787269.26963732</v>
+        <v>-6908240.2668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2983,7 +3177,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3192,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.91</v>
+        <v>1.947</v>
       </c>
       <c r="C72" t="n">
-        <v>1.91</v>
+        <v>1.973</v>
       </c>
       <c r="D72" t="n">
-        <v>1.91</v>
+        <v>1.973</v>
       </c>
       <c r="E72" t="n">
-        <v>1.91</v>
+        <v>1.947</v>
       </c>
       <c r="F72" t="n">
-        <v>46267.7316</v>
+        <v>469674.3971</v>
       </c>
       <c r="G72" t="n">
-        <v>-4787269.26963732</v>
+        <v>-6438565.869700001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3019,7 +3217,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3232,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.904</v>
+        <v>1.972</v>
       </c>
       <c r="C73" t="n">
-        <v>1.902</v>
+        <v>1.972</v>
       </c>
       <c r="D73" t="n">
-        <v>1.904</v>
+        <v>1.972</v>
       </c>
       <c r="E73" t="n">
-        <v>1.902</v>
+        <v>1.972</v>
       </c>
       <c r="F73" t="n">
-        <v>25246.7082</v>
+        <v>32802.231237322</v>
       </c>
       <c r="G73" t="n">
-        <v>-4812515.97783732</v>
+        <v>-6471368.100937323</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3055,7 +3257,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3272,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.902</v>
+        <v>1.972</v>
       </c>
       <c r="C74" t="n">
-        <v>1.902</v>
+        <v>1.972</v>
       </c>
       <c r="D74" t="n">
-        <v>1.902</v>
+        <v>1.972</v>
       </c>
       <c r="E74" t="n">
-        <v>1.902</v>
+        <v>1.972</v>
       </c>
       <c r="F74" t="n">
-        <v>56041.4054</v>
+        <v>32556.795131845</v>
       </c>
       <c r="G74" t="n">
-        <v>-4812515.97783732</v>
+        <v>-6471368.100937323</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3091,7 +3297,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3312,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.901</v>
+        <v>1.972</v>
       </c>
       <c r="C75" t="n">
-        <v>1.901</v>
+        <v>1.972</v>
       </c>
       <c r="D75" t="n">
-        <v>1.901</v>
+        <v>1.972</v>
       </c>
       <c r="E75" t="n">
-        <v>1.901</v>
+        <v>1.972</v>
       </c>
       <c r="F75" t="n">
-        <v>30649.2667</v>
+        <v>524.9831</v>
       </c>
       <c r="G75" t="n">
-        <v>-4843165.24453732</v>
+        <v>-6471368.100937323</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3127,7 +3337,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3352,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.901</v>
+        <v>1.972</v>
       </c>
       <c r="C76" t="n">
-        <v>1.901</v>
+        <v>1.973</v>
       </c>
       <c r="D76" t="n">
-        <v>1.901</v>
+        <v>1.973</v>
       </c>
       <c r="E76" t="n">
-        <v>1.901</v>
+        <v>1.972</v>
       </c>
       <c r="F76" t="n">
-        <v>50000</v>
+        <v>1184765.5893</v>
       </c>
       <c r="G76" t="n">
-        <v>-4843165.24453732</v>
+        <v>-5286602.511637323</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3163,7 +3377,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3392,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.901</v>
+        <v>1.973</v>
       </c>
       <c r="C77" t="n">
-        <v>1.901</v>
+        <v>1.989</v>
       </c>
       <c r="D77" t="n">
-        <v>1.901</v>
+        <v>1.989</v>
       </c>
       <c r="E77" t="n">
-        <v>1.901</v>
+        <v>1.973</v>
       </c>
       <c r="F77" t="n">
-        <v>152080.0055</v>
+        <v>924541.3485</v>
       </c>
       <c r="G77" t="n">
-        <v>-4843165.24453732</v>
+        <v>-4362061.163137322</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3199,7 +3417,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3210,35 +3432,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.901</v>
+        <v>1.989</v>
       </c>
       <c r="C78" t="n">
-        <v>1.901</v>
+        <v>1.986</v>
       </c>
       <c r="D78" t="n">
-        <v>1.901</v>
+        <v>1.989</v>
       </c>
       <c r="E78" t="n">
-        <v>1.901</v>
+        <v>1.986</v>
       </c>
       <c r="F78" t="n">
-        <v>22755.8682</v>
+        <v>149439</v>
       </c>
       <c r="G78" t="n">
-        <v>-4843165.24453732</v>
+        <v>-4511500.163137322</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3246,28 +3470,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.906</v>
+        <v>1.96</v>
       </c>
       <c r="C79" t="n">
-        <v>1.939</v>
+        <v>1.96</v>
       </c>
       <c r="D79" t="n">
-        <v>1.939</v>
+        <v>1.96</v>
       </c>
       <c r="E79" t="n">
-        <v>1.906</v>
+        <v>1.96</v>
       </c>
       <c r="F79" t="n">
-        <v>118151.8624</v>
+        <v>20591.1498</v>
       </c>
       <c r="G79" t="n">
-        <v>-4725013.38213732</v>
+        <v>-4532091.312937322</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3282,22 +3506,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.902</v>
+        <v>1.95</v>
       </c>
       <c r="C80" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="D80" t="n">
-        <v>1.902</v>
+        <v>1.95</v>
       </c>
       <c r="E80" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="F80" t="n">
-        <v>213172.8167</v>
+        <v>165000</v>
       </c>
       <c r="G80" t="n">
-        <v>-4938186.19883732</v>
+        <v>-4697091.312937322</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3318,22 +3542,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.939</v>
+        <v>1.969</v>
       </c>
       <c r="C81" t="n">
-        <v>1.939</v>
+        <v>1.969</v>
       </c>
       <c r="D81" t="n">
-        <v>1.939</v>
+        <v>1.969</v>
       </c>
       <c r="E81" t="n">
-        <v>1.939</v>
+        <v>1.969</v>
       </c>
       <c r="F81" t="n">
-        <v>326.1572</v>
+        <v>21812.4599</v>
       </c>
       <c r="G81" t="n">
-        <v>-4937860.04163732</v>
+        <v>-4675278.853037322</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3354,22 +3578,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.902</v>
+        <v>1.968</v>
       </c>
       <c r="C82" t="n">
-        <v>1.902</v>
+        <v>1.968</v>
       </c>
       <c r="D82" t="n">
-        <v>1.902</v>
+        <v>1.968</v>
       </c>
       <c r="E82" t="n">
-        <v>1.902</v>
+        <v>1.968</v>
       </c>
       <c r="F82" t="n">
-        <v>119713.8861</v>
+        <v>25278.0587</v>
       </c>
       <c r="G82" t="n">
-        <v>-5057573.92773732</v>
+        <v>-4700556.911737322</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3390,28 +3614,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.902</v>
+        <v>1.95</v>
       </c>
       <c r="C83" t="n">
-        <v>1.902</v>
+        <v>1.95</v>
       </c>
       <c r="D83" t="n">
-        <v>1.902</v>
+        <v>1.95</v>
       </c>
       <c r="E83" t="n">
-        <v>1.902</v>
+        <v>1.95</v>
       </c>
       <c r="F83" t="n">
-        <v>106726.3875</v>
+        <v>20295.4339</v>
       </c>
       <c r="G83" t="n">
-        <v>-5057573.92773732</v>
+        <v>-4720852.345637321</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3426,22 +3650,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.902</v>
+        <v>1.936</v>
       </c>
       <c r="C84" t="n">
-        <v>1.902</v>
+        <v>1.96</v>
       </c>
       <c r="D84" t="n">
-        <v>1.902</v>
+        <v>1.96</v>
       </c>
       <c r="E84" t="n">
-        <v>1.902</v>
+        <v>1.936</v>
       </c>
       <c r="F84" t="n">
-        <v>74297.8569</v>
+        <v>159250.842</v>
       </c>
       <c r="G84" t="n">
-        <v>-5057573.92773732</v>
+        <v>-4561601.503637321</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3462,22 +3686,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.935</v>
+        <v>1.94</v>
       </c>
       <c r="C85" t="n">
-        <v>1.902</v>
+        <v>1.927</v>
       </c>
       <c r="D85" t="n">
-        <v>1.935</v>
+        <v>1.94</v>
       </c>
       <c r="E85" t="n">
-        <v>1.902</v>
+        <v>1.927</v>
       </c>
       <c r="F85" t="n">
-        <v>144138.4602</v>
+        <v>61108.3963</v>
       </c>
       <c r="G85" t="n">
-        <v>-5057573.92773732</v>
+        <v>-4622709.899937321</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3498,22 +3722,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="C86" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="D86" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="E86" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="F86" t="n">
-        <v>70000</v>
+        <v>52403.5302</v>
       </c>
       <c r="G86" t="n">
-        <v>-5057573.92773732</v>
+        <v>-4675113.430137321</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3534,22 +3758,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.903</v>
+        <v>1.939</v>
       </c>
       <c r="C87" t="n">
-        <v>1.903</v>
+        <v>1.939</v>
       </c>
       <c r="D87" t="n">
-        <v>1.903</v>
+        <v>1.939</v>
       </c>
       <c r="E87" t="n">
-        <v>1.903</v>
+        <v>1.939</v>
       </c>
       <c r="F87" t="n">
-        <v>107260.5359</v>
+        <v>207032.2092</v>
       </c>
       <c r="G87" t="n">
-        <v>-4950313.39183732</v>
+        <v>-4468081.220937321</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3570,22 +3794,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.902</v>
+        <v>1.966</v>
       </c>
       <c r="C88" t="n">
-        <v>1.903</v>
+        <v>1.966</v>
       </c>
       <c r="D88" t="n">
-        <v>1.903</v>
+        <v>1.966</v>
       </c>
       <c r="E88" t="n">
-        <v>1.899</v>
+        <v>1.966</v>
       </c>
       <c r="F88" t="n">
-        <v>550233.8367</v>
+        <v>253</v>
       </c>
       <c r="G88" t="n">
-        <v>-4950313.39183732</v>
+        <v>-4467828.220937321</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3606,22 +3830,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="C89" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="D89" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="E89" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="F89" t="n">
-        <v>10000</v>
+        <v>12179.1488</v>
       </c>
       <c r="G89" t="n">
-        <v>-4950313.39183732</v>
+        <v>-4480007.369737321</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3642,22 +3866,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="C90" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="D90" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="E90" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="F90" t="n">
-        <v>9994.3704</v>
+        <v>253</v>
       </c>
       <c r="G90" t="n">
-        <v>-4940319.02143732</v>
+        <v>-4479754.369737321</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3678,22 +3902,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.903</v>
+        <v>1.959</v>
       </c>
       <c r="C91" t="n">
-        <v>1.903</v>
+        <v>1.96</v>
       </c>
       <c r="D91" t="n">
-        <v>1.903</v>
+        <v>1.96</v>
       </c>
       <c r="E91" t="n">
-        <v>1.903</v>
+        <v>1.959</v>
       </c>
       <c r="F91" t="n">
-        <v>9994.3704</v>
+        <v>391082.9558</v>
       </c>
       <c r="G91" t="n">
-        <v>-4950313.39183732</v>
+        <v>-4479754.369737321</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3714,22 +3938,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="C92" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="D92" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="E92" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="F92" t="n">
-        <v>1069.623517276</v>
+        <v>20429.0226</v>
       </c>
       <c r="G92" t="n">
-        <v>-4949243.768320045</v>
+        <v>-4500183.39233732</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3750,22 +3974,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="C93" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="D93" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="E93" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="F93" t="n">
-        <v>40538.9018</v>
+        <v>20022.231</v>
       </c>
       <c r="G93" t="n">
-        <v>-4989782.670120045</v>
+        <v>-4500183.39233732</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3786,22 +4010,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.903</v>
+        <v>1.959</v>
       </c>
       <c r="C94" t="n">
-        <v>1.903</v>
+        <v>1.959</v>
       </c>
       <c r="D94" t="n">
-        <v>1.903</v>
+        <v>1.959</v>
       </c>
       <c r="E94" t="n">
-        <v>1.903</v>
+        <v>1.959</v>
       </c>
       <c r="F94" t="n">
-        <v>198.9849</v>
+        <v>255</v>
       </c>
       <c r="G94" t="n">
-        <v>-4989782.670120045</v>
+        <v>-4499928.39233732</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3822,22 +4046,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.9</v>
+        <v>1.926</v>
       </c>
       <c r="C95" t="n">
-        <v>1.899</v>
+        <v>1.926</v>
       </c>
       <c r="D95" t="n">
-        <v>1.9</v>
+        <v>1.926</v>
       </c>
       <c r="E95" t="n">
-        <v>1.899</v>
+        <v>1.926</v>
       </c>
       <c r="F95" t="n">
-        <v>48834.6513</v>
+        <v>22828.9079</v>
       </c>
       <c r="G95" t="n">
-        <v>-5038617.321420045</v>
+        <v>-4522757.30023732</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3858,22 +4082,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.899</v>
+        <v>1.926</v>
       </c>
       <c r="C96" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="D96" t="n">
-        <v>1.899</v>
+        <v>1.926</v>
       </c>
       <c r="E96" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="F96" t="n">
-        <v>19587.2609</v>
+        <v>170484.9431</v>
       </c>
       <c r="G96" t="n">
-        <v>-5058204.582320045</v>
+        <v>-4522757.30023732</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3894,22 +4118,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="C97" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="D97" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="E97" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="F97" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G97" t="n">
-        <v>-5058204.582320045</v>
+        <v>-4522757.30023732</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3930,22 +4154,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="C98" t="n">
-        <v>1.897</v>
+        <v>1.925</v>
       </c>
       <c r="D98" t="n">
-        <v>1.898</v>
+        <v>1.926</v>
       </c>
       <c r="E98" t="n">
-        <v>1.897</v>
+        <v>1.925</v>
       </c>
       <c r="F98" t="n">
-        <v>84302.2586</v>
+        <v>304560.2326</v>
       </c>
       <c r="G98" t="n">
-        <v>-5142506.840920045</v>
+        <v>-4827317.53283732</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3966,22 +4190,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.897</v>
+        <v>1.948</v>
       </c>
       <c r="C99" t="n">
-        <v>1.897</v>
+        <v>1.948</v>
       </c>
       <c r="D99" t="n">
-        <v>1.897</v>
+        <v>1.948</v>
       </c>
       <c r="E99" t="n">
-        <v>1.897</v>
+        <v>1.948</v>
       </c>
       <c r="F99" t="n">
-        <v>100621.8016</v>
+        <v>41306.1348</v>
       </c>
       <c r="G99" t="n">
-        <v>-5142506.840920045</v>
+        <v>-4786011.39803732</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4002,22 +4226,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="C100" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="D100" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="E100" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="F100" t="n">
-        <v>45000</v>
+        <v>1257.8716</v>
       </c>
       <c r="G100" t="n">
-        <v>-5097506.840920045</v>
+        <v>-4787269.26963732</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4038,22 +4262,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="C101" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="D101" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="E101" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="F101" t="n">
-        <v>9801.015100000001</v>
+        <v>46267.7316</v>
       </c>
       <c r="G101" t="n">
-        <v>-5087705.825820045</v>
+        <v>-4787269.26963732</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4074,22 +4298,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="C102" t="n">
-        <v>1.903</v>
+        <v>1.902</v>
       </c>
       <c r="D102" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="E102" t="n">
-        <v>1.903</v>
+        <v>1.902</v>
       </c>
       <c r="F102" t="n">
-        <v>70681.49770000001</v>
+        <v>25246.7082</v>
       </c>
       <c r="G102" t="n">
-        <v>-5087705.825820045</v>
+        <v>-4812515.97783732</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4110,22 +4334,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.903</v>
+        <v>1.902</v>
       </c>
       <c r="C103" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="D103" t="n">
-        <v>1.903</v>
+        <v>1.902</v>
       </c>
       <c r="E103" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="F103" t="n">
-        <v>45000</v>
+        <v>56041.4054</v>
       </c>
       <c r="G103" t="n">
-        <v>-5132705.825820045</v>
+        <v>-4812515.97783732</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4146,22 +4370,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="C104" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="D104" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="E104" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="F104" t="n">
-        <v>35568.3173</v>
+        <v>30649.2667</v>
       </c>
       <c r="G104" t="n">
-        <v>-5097137.508520044</v>
+        <v>-4843165.24453732</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4182,22 +4406,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="C105" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="D105" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="E105" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="F105" t="n">
-        <v>17388.9629</v>
+        <v>50000</v>
       </c>
       <c r="G105" t="n">
-        <v>-5097137.508520044</v>
+        <v>-4843165.24453732</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4218,22 +4442,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="C106" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="D106" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="E106" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="F106" t="n">
-        <v>7401.9607</v>
+        <v>152080.0055</v>
       </c>
       <c r="G106" t="n">
-        <v>-5097137.508520044</v>
+        <v>-4843165.24453732</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4254,22 +4478,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="C107" t="n">
-        <v>1.898</v>
+        <v>1.901</v>
       </c>
       <c r="D107" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="E107" t="n">
-        <v>1.898</v>
+        <v>1.901</v>
       </c>
       <c r="F107" t="n">
-        <v>45000</v>
+        <v>22755.8682</v>
       </c>
       <c r="G107" t="n">
-        <v>-5142137.508520044</v>
+        <v>-4843165.24453732</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4290,22 +4514,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.898</v>
+        <v>1.906</v>
       </c>
       <c r="C108" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="D108" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="E108" t="n">
-        <v>1.898</v>
+        <v>1.906</v>
       </c>
       <c r="F108" t="n">
-        <v>1191.2997</v>
+        <v>118151.8624</v>
       </c>
       <c r="G108" t="n">
-        <v>-5142137.508520044</v>
+        <v>-4725013.38213732</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4326,22 +4550,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="C109" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="D109" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="E109" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="F109" t="n">
-        <v>57824.3267</v>
+        <v>213172.8167</v>
       </c>
       <c r="G109" t="n">
-        <v>-5142137.508520044</v>
+        <v>-4938186.19883732</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4362,22 +4586,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="C110" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="D110" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="E110" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="F110" t="n">
-        <v>19068.7702</v>
+        <v>326.1572</v>
       </c>
       <c r="G110" t="n">
-        <v>-5142137.508520044</v>
+        <v>-4937860.04163732</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4398,22 +4622,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="C111" t="n">
-        <v>1.897</v>
+        <v>1.902</v>
       </c>
       <c r="D111" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="E111" t="n">
-        <v>1.897</v>
+        <v>1.902</v>
       </c>
       <c r="F111" t="n">
-        <v>54201.2282</v>
+        <v>119713.8861</v>
       </c>
       <c r="G111" t="n">
-        <v>-5196338.736720044</v>
+        <v>-5057573.92773732</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4434,22 +4658,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.899</v>
+        <v>1.902</v>
       </c>
       <c r="C112" t="n">
-        <v>1.899</v>
+        <v>1.902</v>
       </c>
       <c r="D112" t="n">
-        <v>1.899</v>
+        <v>1.902</v>
       </c>
       <c r="E112" t="n">
-        <v>1.899</v>
+        <v>1.902</v>
       </c>
       <c r="F112" t="n">
-        <v>65587.18949999999</v>
+        <v>106726.3875</v>
       </c>
       <c r="G112" t="n">
-        <v>-5130751.547220044</v>
+        <v>-5057573.92773732</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4470,22 +4694,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="C113" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="D113" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="E113" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="F113" t="n">
-        <v>123627.4341</v>
+        <v>74297.8569</v>
       </c>
       <c r="G113" t="n">
-        <v>-5007124.113120044</v>
+        <v>-5057573.92773732</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4506,22 +4730,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.898</v>
+        <v>1.935</v>
       </c>
       <c r="C114" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="D114" t="n">
-        <v>1.898</v>
+        <v>1.935</v>
       </c>
       <c r="E114" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="F114" t="n">
-        <v>54058.9955</v>
+        <v>144138.4602</v>
       </c>
       <c r="G114" t="n">
-        <v>-5061183.108620044</v>
+        <v>-5057573.92773732</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4542,22 +4766,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="C115" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="E115" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="F115" t="n">
-        <v>22148.3379</v>
+        <v>70000</v>
       </c>
       <c r="G115" t="n">
-        <v>-5039034.770720044</v>
+        <v>-5057573.92773732</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4578,22 +4802,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="C116" t="n">
-        <v>1.918</v>
+        <v>1.903</v>
       </c>
       <c r="D116" t="n">
-        <v>1.918</v>
+        <v>1.903</v>
       </c>
       <c r="E116" t="n">
-        <v>1.898</v>
+        <v>1.903</v>
       </c>
       <c r="F116" t="n">
-        <v>103649.0197</v>
+        <v>107260.5359</v>
       </c>
       <c r="G116" t="n">
-        <v>-4935385.751020044</v>
+        <v>-4950313.39183732</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4614,22 +4838,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="C117" t="n">
-        <v>1.909</v>
+        <v>1.903</v>
       </c>
       <c r="D117" t="n">
-        <v>1.918</v>
+        <v>1.903</v>
       </c>
       <c r="E117" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="F117" t="n">
-        <v>121566.5688</v>
+        <v>550233.8367</v>
       </c>
       <c r="G117" t="n">
-        <v>-5056952.319820044</v>
+        <v>-4950313.39183732</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4650,22 +4874,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="C118" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="D118" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="E118" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="F118" t="n">
-        <v>16102.4813</v>
+        <v>10000</v>
       </c>
       <c r="G118" t="n">
-        <v>-5040849.838520044</v>
+        <v>-4950313.39183732</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4686,22 +4910,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C119" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="D119" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E119" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="F119" t="n">
-        <v>45000</v>
+        <v>9994.3704</v>
       </c>
       <c r="G119" t="n">
-        <v>-5085849.838520044</v>
+        <v>-4940319.02143732</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4722,22 +4946,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="C120" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="D120" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="E120" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="F120" t="n">
-        <v>260</v>
+        <v>9994.3704</v>
       </c>
       <c r="G120" t="n">
-        <v>-5085589.838520044</v>
+        <v>-4950313.39183732</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4758,22 +4982,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="C121" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="D121" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="E121" t="n">
-        <v>1.898</v>
+        <v>1.939</v>
       </c>
       <c r="F121" t="n">
-        <v>45000</v>
+        <v>1069.623517276</v>
       </c>
       <c r="G121" t="n">
-        <v>-5130589.838520044</v>
+        <v>-4949243.768320045</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4794,22 +5018,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.901</v>
+        <v>1.903</v>
       </c>
       <c r="C122" t="n">
-        <v>1.901</v>
+        <v>1.903</v>
       </c>
       <c r="D122" t="n">
-        <v>1.901</v>
+        <v>1.903</v>
       </c>
       <c r="E122" t="n">
-        <v>1.901</v>
+        <v>1.903</v>
       </c>
       <c r="F122" t="n">
-        <v>245000</v>
+        <v>40538.9018</v>
       </c>
       <c r="G122" t="n">
-        <v>-4885589.838520044</v>
+        <v>-4989782.670120045</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4830,22 +5054,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.901</v>
+        <v>1.903</v>
       </c>
       <c r="C123" t="n">
-        <v>1.898</v>
+        <v>1.903</v>
       </c>
       <c r="D123" t="n">
-        <v>1.901</v>
+        <v>1.903</v>
       </c>
       <c r="E123" t="n">
-        <v>1.898</v>
+        <v>1.903</v>
       </c>
       <c r="F123" t="n">
-        <v>322039.0271</v>
+        <v>198.9849</v>
       </c>
       <c r="G123" t="n">
-        <v>-5207628.865620043</v>
+        <v>-4989782.670120045</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4866,22 +5090,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="C124" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="D124" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="E124" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="F124" t="n">
-        <v>71408.1338</v>
+        <v>48834.6513</v>
       </c>
       <c r="G124" t="n">
-        <v>-5207628.865620043</v>
+        <v>-5038617.321420045</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4902,22 +5126,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="C125" t="n">
         <v>1.898</v>
       </c>
       <c r="D125" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="E125" t="n">
         <v>1.898</v>
       </c>
       <c r="F125" t="n">
-        <v>85592.8737</v>
+        <v>19587.2609</v>
       </c>
       <c r="G125" t="n">
-        <v>-5207628.865620043</v>
+        <v>-5058204.582320045</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4950,10 +5174,10 @@
         <v>1.898</v>
       </c>
       <c r="F126" t="n">
-        <v>61075.2647</v>
+        <v>45000</v>
       </c>
       <c r="G126" t="n">
-        <v>-5207628.865620043</v>
+        <v>-5058204.582320045</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4974,22 +5198,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.91</v>
+        <v>1.898</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92</v>
+        <v>1.897</v>
       </c>
       <c r="D127" t="n">
-        <v>1.92</v>
+        <v>1.898</v>
       </c>
       <c r="E127" t="n">
-        <v>1.91</v>
+        <v>1.897</v>
       </c>
       <c r="F127" t="n">
-        <v>429503.0221</v>
+        <v>84302.2586</v>
       </c>
       <c r="G127" t="n">
-        <v>-4778125.843520043</v>
+        <v>-5142506.840920045</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5010,22 +5234,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.92</v>
+        <v>1.897</v>
       </c>
       <c r="C128" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D128" t="n">
-        <v>1.92</v>
+        <v>1.897</v>
       </c>
       <c r="E128" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F128" t="n">
-        <v>1024484.5339</v>
+        <v>100621.8016</v>
       </c>
       <c r="G128" t="n">
-        <v>-5802610.377420044</v>
+        <v>-5142506.840920045</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5041,6 +5265,1050 @@
       </c>
       <c r="N128" t="inlineStr"/>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F129" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-5097506.840920045</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9801.015100000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-5087705.825820045</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F131" t="n">
+        <v>70681.49770000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-5087705.825820045</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F132" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-5132705.825820045</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F133" t="n">
+        <v>35568.3173</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-5097137.508520044</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F134" t="n">
+        <v>17388.9629</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-5097137.508520044</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7401.9607</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-5097137.508520044</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F136" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5142137.508520044</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1191.2997</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-5142137.508520044</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F138" t="n">
+        <v>57824.3267</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-5142137.508520044</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F139" t="n">
+        <v>19068.7702</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-5142137.508520044</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F140" t="n">
+        <v>54201.2282</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-5196338.736720044</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F141" t="n">
+        <v>65587.18949999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-5130751.547220044</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>123627.4341</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-5007124.113120044</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F143" t="n">
+        <v>54058.9955</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-5061183.108620044</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>22148.3379</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-5039034.770720044</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F145" t="n">
+        <v>103649.0197</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4935385.751020044</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F146" t="n">
+        <v>121566.5688</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-5056952.319820044</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16102.4813</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-5040849.838520044</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F148" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-5085849.838520044</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F149" t="n">
+        <v>260</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-5085589.838520044</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F150" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-5130589.838520044</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F151" t="n">
+        <v>245000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4885589.838520044</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F152" t="n">
+        <v>322039.0271</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5207628.865620043</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F153" t="n">
+        <v>71408.1338</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5207628.865620043</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F154" t="n">
+        <v>85592.8737</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5207628.865620043</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F155" t="n">
+        <v>61075.2647</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5207628.865620043</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F156" t="n">
+        <v>429503.0221</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4778125.843520043</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1024484.5339</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5802610.377420044</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-3763453.3452</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-5223252.2923</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,24 +946,15 @@
         <v>-6058571.526699999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,20 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1080,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1120,20 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,24 +1078,21 @@
         <v>-6486655.8401</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>1.896</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1200,24 +1117,21 @@
         <v>-6501367.1595</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>1.894</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1242,24 +1156,21 @@
         <v>-6316994.6464</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>1.893</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,24 +1195,21 @@
         <v>-6289467.5782</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>1.894</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1326,24 +1234,19 @@
         <v>-6315496.3109</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1368,24 +1271,19 @@
         <v>-6315237.3109</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1412,20 +1310,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1452,20 +1347,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1492,20 +1384,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1532,20 +1421,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1572,20 +1458,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,20 +1495,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1652,20 +1532,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1692,20 +1569,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1732,20 +1606,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,20 +1643,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1812,20 +1680,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1852,20 +1717,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1892,20 +1754,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1932,20 +1791,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1972,20 +1828,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2012,20 +1865,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2052,20 +1902,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2092,20 +1939,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2132,20 +1976,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,20 +2013,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2212,20 +2050,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,20 +2087,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2290,22 +2122,19 @@
         <v>-5118558.468200001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2332,20 +2161,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2372,20 +2198,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2412,20 +2235,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2450,22 +2270,19 @@
         <v>-7108158.423400001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2492,20 +2309,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2532,20 +2346,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2572,20 +2383,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2612,20 +2420,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2652,20 +2457,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2692,20 +2494,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2732,20 +2531,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2772,20 +2568,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2812,20 +2605,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2852,20 +2642,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2892,20 +2679,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2930,22 +2714,19 @@
         <v>-6363553.9346</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2970,22 +2751,19 @@
         <v>-6375744.2262</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3010,22 +2788,19 @@
         <v>-7375744.2262</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3052,20 +2827,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3090,22 +2862,19 @@
         <v>-7695769.764500001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3132,20 +2901,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3172,20 +2938,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3212,20 +2975,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3252,20 +3012,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3292,20 +3049,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3332,20 +3086,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3372,20 +3123,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3410,22 +3158,17 @@
         <v>-4362061.163137322</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3450,20 +3193,15 @@
         <v>-4511500.163137322</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L78" t="n">
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3488,18 +3226,15 @@
         <v>-4532091.312937322</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3524,18 +3259,15 @@
         <v>-4697091.312937322</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3562,16 +3294,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3596,18 +3325,15 @@
         <v>-4700556.911737322</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3632,18 +3358,15 @@
         <v>-4720852.345637321</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3668,18 +3391,15 @@
         <v>-4561601.503637321</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3704,18 +3424,15 @@
         <v>-4622709.899937321</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3742,16 +3459,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3778,16 +3492,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3814,16 +3525,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3848,18 +3556,15 @@
         <v>-4480007.369737321</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3884,18 +3589,15 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3920,18 +3622,15 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3958,16 +3657,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3994,16 +3690,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4028,18 +3721,15 @@
         <v>-4499928.39233732</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4064,18 +3754,15 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4100,18 +3787,15 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4136,18 +3820,15 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4174,16 +3855,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4210,16 +3888,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4246,16 +3921,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4282,16 +3954,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4318,16 +3987,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4354,16 +4020,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4390,16 +4053,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4426,16 +4086,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4462,16 +4119,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4498,16 +4152,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4534,16 +4185,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4570,16 +4218,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4606,16 +4251,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4642,16 +4284,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4678,16 +4317,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4714,16 +4350,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4750,16 +4383,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4786,16 +4416,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4822,16 +4449,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4858,16 +4482,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4894,16 +4515,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4930,16 +4548,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4966,16 +4581,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5002,16 +4614,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5038,16 +4647,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5074,16 +4680,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5110,16 +4713,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5146,16 +4746,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5182,16 +4779,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5218,16 +4812,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5254,16 +4845,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5290,16 +4878,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5326,16 +4911,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5362,16 +4944,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5398,16 +4977,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5434,16 +5010,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5470,16 +5043,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5506,16 +5076,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5542,16 +5109,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5578,16 +5142,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5614,16 +5175,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5650,16 +5208,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5686,16 +5241,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5722,16 +5274,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5758,16 +5307,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5794,16 +5340,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5830,16 +5373,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5866,16 +5406,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5902,16 +5439,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5938,16 +5472,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5974,16 +5505,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6010,16 +5538,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6046,16 +5571,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6082,16 +5604,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6118,16 +5637,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6154,16 +5670,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6190,16 +5703,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6226,16 +5736,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6262,16 +5769,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6298,18 +5802,15 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3763713.3452</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3763453.3452</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-5223252.2923</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-6486655.8401</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1.896</v>
@@ -1117,7 +1117,7 @@
         <v>-6501367.1595</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1.894</v>
@@ -1156,7 +1156,7 @@
         <v>-6316994.6464</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1.893</v>
@@ -1195,7 +1195,7 @@
         <v>-6289467.5782</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1.894</v>
@@ -1234,9 +1234,11 @@
         <v>-6315496.3109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.909</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1271,9 +1273,11 @@
         <v>-6315237.3109</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.895</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1382,9 +1386,11 @@
         <v>-6277884.504000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.895</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1456,9 +1462,11 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1604,9 +1612,11 @@
         <v>-5206456.286100001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2122,7 +2132,7 @@
         <v>-5118558.468200001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2270,7 +2280,7 @@
         <v>-7108158.423400001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2492,9 +2502,11 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2529,9 +2541,11 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2566,9 +2580,11 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.917</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2603,9 +2619,11 @@
         <v>-6555196.5932</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.917</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2640,9 +2658,11 @@
         <v>-6530576.5036</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2714,7 +2734,7 @@
         <v>-6363553.9346</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2751,7 +2771,7 @@
         <v>-6375744.2262</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2788,7 +2808,7 @@
         <v>-7375744.2262</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2862,7 +2882,7 @@
         <v>-7695769.764500001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3158,16 +3178,18 @@
         <v>-4362061.163137322</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
       <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -3193,11 +3215,15 @@
         <v>-4511500.163137322</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +3252,15 @@
         <v>-4532091.312937322</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +3289,15 @@
         <v>-4697091.312937322</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3296,7 +3330,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3363,15 @@
         <v>-4700556.911737322</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3358,11 +3400,15 @@
         <v>-4720852.345637321</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3437,15 @@
         <v>-4561601.503637321</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3474,15 @@
         <v>-4622709.899937321</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3461,7 +3515,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3494,7 +3552,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3527,7 +3589,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3556,14 +3622,16 @@
         <v>-4480007.369737321</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3589,7 +3657,7 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3622,7 +3690,7 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3655,7 +3723,7 @@
         <v>-4500183.39233732</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3721,7 +3789,7 @@
         <v>-4499928.39233732</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3754,7 +3822,7 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3787,7 +3855,7 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3820,7 +3888,7 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5701,10 +5769,14 @@
         <v>-5207628.865620043</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.898</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5734,11 +5806,19 @@
         <v>-5207628.865620043</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5847,19 @@
         <v>-4778125.843520043</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5800,17 +5888,25 @@
         <v>-5802610.377420044</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3763713.3452</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1078,17 +1078,11 @@
         <v>-6486655.8401</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1117,17 +1111,11 @@
         <v>-6501367.1595</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1156,17 +1144,11 @@
         <v>-6316994.6464</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1195,17 +1177,11 @@
         <v>-6289467.5782</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1234,17 +1210,11 @@
         <v>-6315496.3109</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1273,17 +1243,11 @@
         <v>-6315237.3109</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1353,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1391,12 +1347,10 @@
       <c r="I29" t="n">
         <v>1.895</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1428,10 +1382,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1.895</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1462,15 +1418,15 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1.895</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1505,11 +1461,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1542,11 +1494,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1579,11 +1527,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1612,17 +1556,11 @@
         <v>-5206456.286100001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1593,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1692,11 +1626,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1659,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1766,11 +1692,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1725,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1758,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1877,11 +1791,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1914,11 +1824,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1857,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1890,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +1923,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +1956,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +1989,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +2022,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2173,11 +2055,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2088,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2121,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2154,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2253,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2428,15 +2282,15 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2468,10 +2322,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.91</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2502,15 +2358,15 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.91</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2541,17 +2397,11 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2580,17 +2430,11 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2619,17 +2463,11 @@
         <v>-6555196.5932</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2663,12 +2501,10 @@
       <c r="I63" t="n">
         <v>1.91</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2700,10 +2536,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.91</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2737,10 +2575,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.91</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2775,11 +2615,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2648,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2681,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2886,11 +2714,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2923,11 +2747,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +2780,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2813,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3030,15 +2842,11 @@
         <v>-6471368.100937323</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3071,11 +2879,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3108,11 +2912,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3145,11 +2945,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +2978,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +3011,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3044,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +3077,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +3110,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3143,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3176,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3209,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3478,11 +3242,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3275,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3308,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3341,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3622,16 +3370,14 @@
         <v>-4480007.369737321</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3690,7 +3436,7 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3723,7 +3469,7 @@
         <v>-4500183.39233732</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3987,7 +3733,7 @@
         <v>-4787269.26963732</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4152,7 +3898,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4185,7 +3931,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4218,7 +3964,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4383,7 +4129,7 @@
         <v>-5057573.92773732</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4581,7 +4327,7 @@
         <v>-4950313.39183732</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5010,10 +4756,14 @@
         <v>-5087705.825820045</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.903</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -5046,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5145,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5178,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5211,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5244,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +5066,19 @@
         <v>-5142137.508520044</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5107,19 @@
         <v>-5196338.736720044</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5343,8 +5151,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5376,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +5226,19 @@
         <v>-5061183.108620044</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5442,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5475,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5508,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5541,8 +5387,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5574,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5607,8 +5465,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5640,8 +5504,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5540,19 @@
         <v>-4885589.838520044</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5706,8 +5584,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5739,8 +5623,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5769,15 +5659,17 @@
         <v>-5207628.865620043</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>1.903</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5812,11 +5704,11 @@
         <v>1.898</v>
       </c>
       <c r="J155" t="n">
-        <v>1.898</v>
+        <v>1.903</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5853,11 +5745,11 @@
         <v>1.898</v>
       </c>
       <c r="J156" t="n">
-        <v>1.898</v>
+        <v>1.903</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5888,17 +5780,15 @@
         <v>-5802610.377420044</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1.898</v>
+        <v>1.903</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5907,6 +5797,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -1177,10 +1177,14 @@
         <v>-6289467.5782</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.894</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1214,19 @@
         <v>-6315496.3109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1258,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1379,9 +1397,11 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J30" t="n">
         <v>1.895</v>
       </c>
@@ -1418,9 +1438,11 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J31" t="n">
         <v>1.895</v>
       </c>
@@ -1457,10 +1479,14 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.9</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1490,11 +1516,19 @@
         <v>-6301538.768100001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1557,19 @@
         <v>-6267973.778800001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1598,19 @@
         <v>-5206456.286100001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1681,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1757,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1955,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1988,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2021,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2054,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,15 +2458,17 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,15 +2497,17 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J58" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2358,15 +2538,17 @@
         <v>-7046016.977600001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J59" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2397,11 +2579,19 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2430,11 +2620,19 @@
         <v>-6498980.3167</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2463,11 +2661,19 @@
         <v>-6555196.5932</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2502,9 +2708,13 @@
         <v>1.91</v>
       </c>
       <c r="J63" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2747,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2576,11 +2786,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2614,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2647,8 +2863,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2680,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2713,8 +2941,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2746,8 +2980,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2779,8 +3019,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2812,8 +3058,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2842,11 +3094,17 @@
         <v>-6471368.100937323</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2878,8 +3136,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2911,8 +3175,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2944,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3253,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3007,13 +3289,19 @@
         <v>-4511500.163137322</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>1.040263157894737</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3040,7 +3328,7 @@
         <v>-4532091.312937322</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3139,7 +3427,7 @@
         <v>-4700556.911737322</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3172,7 +3460,7 @@
         <v>-4720852.345637321</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3205,7 +3493,7 @@
         <v>-4561601.503637321</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3238,7 +3526,7 @@
         <v>-4622709.899937321</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3370,7 +3658,7 @@
         <v>-4480007.369737321</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3436,7 +3724,7 @@
         <v>-4479754.369737321</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3469,7 +3757,7 @@
         <v>-4500183.39233732</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3502,7 +3790,7 @@
         <v>-4500183.39233732</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3535,7 +3823,7 @@
         <v>-4499928.39233732</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3568,7 +3856,7 @@
         <v>-4522757.30023732</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3733,7 +4021,7 @@
         <v>-4787269.26963732</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3898,7 +4186,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3931,7 +4219,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3964,7 +4252,7 @@
         <v>-4843165.24453732</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4129,7 +4417,7 @@
         <v>-5057573.92773732</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4327,7 +4615,7 @@
         <v>-4950313.39183732</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4756,14 +5044,10 @@
         <v>-5087705.825820045</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4796,14 +5080,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +5113,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4874,14 +5146,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4913,14 +5179,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4952,14 +5212,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4991,14 +5245,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +5278,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5066,19 +5308,11 @@
         <v>-5142137.508520044</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5107,19 +5341,11 @@
         <v>-5196338.736720044</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5151,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5190,14 +5410,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5226,19 +5440,11 @@
         <v>-5061183.108620044</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5270,14 +5476,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5309,14 +5509,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5348,14 +5542,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5387,14 +5575,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5426,14 +5608,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5465,14 +5641,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5504,14 +5674,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5540,19 +5704,11 @@
         <v>-4885589.838520044</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J151" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5584,14 +5740,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5623,14 +5773,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5662,14 +5806,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5704,13 +5842,9 @@
         <v>1.898</v>
       </c>
       <c r="J155" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.898</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5745,11 +5879,11 @@
         <v>1.898</v>
       </c>
       <c r="J156" t="n">
-        <v>1.903</v>
+        <v>1.898</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5784,11 +5918,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1.903</v>
+        <v>1.898</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L157" t="n">

--- a/BackTest/2020-01-15 BackTest HYC.xlsx
+++ b/BackTest/2020-01-15 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.0001</v>
       </c>
       <c r="G2" t="n">
-        <v>-3763713.3452</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>260</v>
       </c>
       <c r="G3" t="n">
-        <v>-3763453.3452</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>1442158.042</v>
       </c>
       <c r="G4" t="n">
-        <v>-5205611.3872</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,21 @@
         <v>51346.3186</v>
       </c>
       <c r="G5" t="n">
-        <v>-5205611.3872</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +579,21 @@
         <v>17640.9051</v>
       </c>
       <c r="G6" t="n">
-        <v>-5223252.2923</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +615,21 @@
         <v>11301.9577</v>
       </c>
       <c r="G7" t="n">
-        <v>-5223252.2923</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +651,21 @@
         <v>104178.1458</v>
       </c>
       <c r="G8" t="n">
-        <v>-5119074.1465</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +687,21 @@
         <v>48215.7828</v>
       </c>
       <c r="G9" t="n">
-        <v>-5119074.1465</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +723,21 @@
         <v>22225.996</v>
       </c>
       <c r="G10" t="n">
-        <v>-5096848.1505</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +759,21 @@
         <v>18926.5526</v>
       </c>
       <c r="G11" t="n">
-        <v>-5096848.1505</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +795,21 @@
         <v>1112554.62</v>
       </c>
       <c r="G12" t="n">
-        <v>-6209402.7705</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +831,21 @@
         <v>32445.38</v>
       </c>
       <c r="G13" t="n">
-        <v>-6241848.1505</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +867,23 @@
         <v>264</v>
       </c>
       <c r="G14" t="n">
-        <v>-6241584.1505</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>1.898</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,23 @@
         <v>260</v>
       </c>
       <c r="G15" t="n">
-        <v>-6241584.1505</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>1.909</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +943,21 @@
         <v>200000</v>
       </c>
       <c r="G16" t="n">
-        <v>-6441584.1505</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +979,23 @@
         <v>383012.6238</v>
       </c>
       <c r="G17" t="n">
-        <v>-6058571.526699999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>1.901</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1017,21 @@
         <v>49993.0411</v>
       </c>
       <c r="G18" t="n">
-        <v>-6058571.526699999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1053,21 @@
         <v>133726.0849</v>
       </c>
       <c r="G19" t="n">
-        <v>-6192297.611599999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1089,21 @@
         <v>40930.5071</v>
       </c>
       <c r="G20" t="n">
-        <v>-6233228.1187</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1125,21 @@
         <v>253427.7214</v>
       </c>
       <c r="G21" t="n">
-        <v>-6486655.8401</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1161,21 @@
         <v>14711.3194</v>
       </c>
       <c r="G22" t="n">
-        <v>-6501367.1595</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1197,23 @@
         <v>184372.5131</v>
       </c>
       <c r="G23" t="n">
-        <v>-6316994.6464</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>1.893</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,22 +1235,21 @@
         <v>27527.0682</v>
       </c>
       <c r="G24" t="n">
-        <v>-6289467.5782</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1211,26 +1271,21 @@
         <v>26028.7327</v>
       </c>
       <c r="G25" t="n">
-        <v>-6315496.3109</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1252,24 +1307,21 @@
         <v>259</v>
       </c>
       <c r="G26" t="n">
-        <v>-6315237.3109</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1343,21 @@
         <v>1040.9598</v>
       </c>
       <c r="G27" t="n">
-        <v>-6316278.2707</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1379,21 @@
         <v>18549.6204</v>
       </c>
       <c r="G28" t="n">
-        <v>-6334827.891100001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,22 +1415,23 @@
         <v>56943.3871</v>
       </c>
       <c r="G29" t="n">
-        <v>-6277884.504000001</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>1.895</v>
       </c>
       <c r="I29" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1394,26 +1453,23 @@
         <v>23654.2641</v>
       </c>
       <c r="G30" t="n">
-        <v>-6301538.768100001</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>1.915</v>
       </c>
       <c r="I30" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1435,26 +1491,23 @@
         <v>331.9897</v>
       </c>
       <c r="G31" t="n">
-        <v>-6301538.768100001</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1476,22 +1529,23 @@
         <v>63613.3847</v>
       </c>
       <c r="G32" t="n">
-        <v>-6301538.768100001</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1513,26 +1567,23 @@
         <v>37706.6262</v>
       </c>
       <c r="G33" t="n">
-        <v>-6301538.768100001</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1554,26 +1605,23 @@
         <v>33564.9893</v>
       </c>
       <c r="G34" t="n">
-        <v>-6267973.778800001</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="I34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1595,26 +1643,23 @@
         <v>1061517.4927</v>
       </c>
       <c r="G35" t="n">
-        <v>-5206456.286100001</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="I35" t="n">
         <v>1.91</v>
       </c>
-      <c r="J35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1636,24 +1681,21 @@
         <v>23989.3541</v>
       </c>
       <c r="G36" t="n">
-        <v>-5182466.932000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1675,24 +1717,21 @@
         <v>18938.2994</v>
       </c>
       <c r="G37" t="n">
-        <v>-5163528.632600001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1714,24 +1753,21 @@
         <v>94417.2064</v>
       </c>
       <c r="G38" t="n">
-        <v>-5163528.632600001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1753,24 +1789,21 @@
         <v>29513.8541</v>
       </c>
       <c r="G39" t="n">
-        <v>-5163528.632600001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,24 +1825,21 @@
         <v>17457.3933</v>
       </c>
       <c r="G40" t="n">
-        <v>-5163528.632600001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1831,24 +1861,21 @@
         <v>19030.2453</v>
       </c>
       <c r="G41" t="n">
-        <v>-5163528.632600001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1870,24 +1897,21 @@
         <v>464500.304</v>
       </c>
       <c r="G42" t="n">
-        <v>-5163528.632600001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1909,24 +1933,21 @@
         <v>5908.3029</v>
       </c>
       <c r="G43" t="n">
-        <v>-5157620.329700002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,24 +1969,21 @@
         <v>24401.423</v>
       </c>
       <c r="G44" t="n">
-        <v>-5157620.329700002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1987,24 +2005,21 @@
         <v>21892.8378</v>
       </c>
       <c r="G45" t="n">
-        <v>-5135727.491900002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2026,24 +2041,21 @@
         <v>11610.3275</v>
       </c>
       <c r="G46" t="n">
-        <v>-5147337.819400001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2065,24 +2077,21 @@
         <v>28779.3512</v>
       </c>
       <c r="G47" t="n">
-        <v>-5118558.468200001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2104,24 +2113,21 @@
         <v>27610.2694</v>
       </c>
       <c r="G48" t="n">
-        <v>-5118558.468200001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2143,24 +2149,21 @@
         <v>43207.4831</v>
       </c>
       <c r="G49" t="n">
-        <v>-5118558.468200001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2182,24 +2185,21 @@
         <v>21019.528</v>
       </c>
       <c r="G50" t="n">
-        <v>-5118558.468200001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2221,24 +2221,21 @@
         <v>117928.0194</v>
       </c>
       <c r="G51" t="n">
-        <v>-5118558.468200001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2260,24 +2257,21 @@
         <v>50000</v>
       </c>
       <c r="G52" t="n">
-        <v>-5168558.468200001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2299,24 +2293,21 @@
         <v>1939599.9552</v>
       </c>
       <c r="G53" t="n">
-        <v>-7108158.423400001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2338,24 +2329,21 @@
         <v>22090</v>
       </c>
       <c r="G54" t="n">
-        <v>-7086068.423400001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2377,24 +2365,21 @@
         <v>380546.3704</v>
       </c>
       <c r="G55" t="n">
-        <v>-7086068.423400001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2416,24 +2401,21 @@
         <v>20638.0323</v>
       </c>
       <c r="G56" t="n">
-        <v>-7065430.391100001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2455,24 +2437,21 @@
         <v>19413.4135</v>
       </c>
       <c r="G57" t="n">
-        <v>-7046016.977600001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,26 +2473,21 @@
         <v>15690.2547</v>
       </c>
       <c r="G58" t="n">
-        <v>-7046016.977600001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2535,26 +2509,21 @@
         <v>18995.7491</v>
       </c>
       <c r="G59" t="n">
-        <v>-7046016.977600001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2576,26 +2545,21 @@
         <v>547036.6609</v>
       </c>
       <c r="G60" t="n">
-        <v>-6498980.3167</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2617,26 +2581,21 @@
         <v>472989.2197</v>
       </c>
       <c r="G61" t="n">
-        <v>-6498980.3167</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2658,26 +2617,21 @@
         <v>56216.2765</v>
       </c>
       <c r="G62" t="n">
-        <v>-6555196.5932</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2699,26 +2653,21 @@
         <v>24620.0896</v>
       </c>
       <c r="G63" t="n">
-        <v>-6530576.5036</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
         <v>1.91</v>
       </c>
-      <c r="J63" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2740,24 +2689,21 @@
         <v>2500</v>
       </c>
       <c r="G64" t="n">
-        <v>-6530576.5036</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2779,24 +2725,21 @@
         <v>167022.569</v>
       </c>
       <c r="G65" t="n">
-        <v>-6363553.9346</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2818,24 +2761,21 @@
         <v>12190.2916</v>
       </c>
       <c r="G66" t="n">
-        <v>-6375744.2262</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2857,24 +2797,21 @@
         <v>1000000</v>
       </c>
       <c r="G67" t="n">
-        <v>-7375744.2262</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2896,24 +2833,21 @@
         <v>349787.9705</v>
       </c>
       <c r="G68" t="n">
-        <v>-7725532.1967</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2935,24 +2869,21 @@
         <v>29762.4322</v>
       </c>
       <c r="G69" t="n">
-        <v>-7695769.764500001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2974,24 +2905,21 @@
         <v>92466.4883</v>
       </c>
       <c r="G70" t="n">
-        <v>-7603303.2762</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3013,24 +2941,21 @@
         <v>695063.0094</v>
       </c>
       <c r="G71" t="n">
-        <v>-6908240.2668</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3052,24 +2977,21 @@
         <v>469674.3971</v>
       </c>
       <c r="G72" t="n">
-        <v>-6438565.869700001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3091,24 +3013,21 @@
         <v>32802.231237322</v>
       </c>
       <c r="G73" t="n">
-        <v>-6471368.100937323</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3130,24 +3049,21 @@
         <v>32556.795131845</v>
       </c>
       <c r="G74" t="n">
-        <v>-6471368.100937323</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3169,24 +3085,21 @@
         <v>524.9831</v>
       </c>
       <c r="G75" t="n">
-        <v>-6471368.100937323</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3208,24 +3121,21 @@
         <v>1184765.5893</v>
       </c>
       <c r="G76" t="n">
-        <v>-5286602.511637323</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3247,24 +3157,21 @@
         <v>924541.3485</v>
       </c>
       <c r="G77" t="n">
-        <v>-4362061.163137322</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3286,24 +3193,21 @@
         <v>149439</v>
       </c>
       <c r="G78" t="n">
-        <v>-4511500.163137322</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1.040263157894737</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3325,18 +3229,21 @@
         <v>20591.1498</v>
       </c>
       <c r="G79" t="n">
-        <v>-4532091.312937322</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1.021178010471204</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3358,18 +3265,15 @@
         <v>165000</v>
       </c>
       <c r="G80" t="n">
-        <v>-4697091.312937322</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3391,18 +3295,15 @@
         <v>21812.4599</v>
       </c>
       <c r="G81" t="n">
-        <v>-4675278.853037322</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3424,18 +3325,15 @@
         <v>25278.0587</v>
       </c>
       <c r="G82" t="n">
-        <v>-4700556.911737322</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3457,18 +3355,15 @@
         <v>20295.4339</v>
       </c>
       <c r="G83" t="n">
-        <v>-4720852.345637321</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,18 +3385,15 @@
         <v>159250.842</v>
       </c>
       <c r="G84" t="n">
-        <v>-4561601.503637321</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3523,18 +3415,15 @@
         <v>61108.3963</v>
       </c>
       <c r="G85" t="n">
-        <v>-4622709.899937321</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3556,18 +3445,15 @@
         <v>52403.5302</v>
       </c>
       <c r="G86" t="n">
-        <v>-4675113.430137321</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3589,18 +3475,15 @@
         <v>207032.2092</v>
       </c>
       <c r="G87" t="n">
-        <v>-4468081.220937321</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3622,18 +3505,15 @@
         <v>253</v>
       </c>
       <c r="G88" t="n">
-        <v>-4467828.220937321</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3655,18 +3535,15 @@
         <v>12179.1488</v>
       </c>
       <c r="G89" t="n">
-        <v>-4480007.369737321</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3688,18 +3565,15 @@
         <v>253</v>
       </c>
       <c r="G90" t="n">
-        <v>-4479754.369737321</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3721,18 +3595,15 @@
         <v>391082.9558</v>
       </c>
       <c r="G91" t="n">
-        <v>-4479754.369737321</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,18 +3625,15 @@
         <v>20429.0226</v>
       </c>
       <c r="G92" t="n">
-        <v>-4500183.39233732</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3787,18 +3655,15 @@
         <v>20022.231</v>
       </c>
       <c r="G93" t="n">
-        <v>-4500183.39233732</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,18 +3685,15 @@
         <v>255</v>
       </c>
       <c r="G94" t="n">
-        <v>-4499928.39233732</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,18 +3715,15 @@
         <v>22828.9079</v>
       </c>
       <c r="G95" t="n">
-        <v>-4522757.30023732</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3886,18 +3745,15 @@
         <v>170484.9431</v>
       </c>
       <c r="G96" t="n">
-        <v>-4522757.30023732</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3919,18 +3775,15 @@
         <v>50000</v>
       </c>
       <c r="G97" t="n">
-        <v>-4522757.30023732</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3952,18 +3805,15 @@
         <v>304560.2326</v>
       </c>
       <c r="G98" t="n">
-        <v>-4827317.53283732</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3985,18 +3835,15 @@
         <v>41306.1348</v>
       </c>
       <c r="G99" t="n">
-        <v>-4786011.39803732</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,18 +3865,15 @@
         <v>1257.8716</v>
       </c>
       <c r="G100" t="n">
-        <v>-4787269.26963732</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4051,18 +3895,15 @@
         <v>46267.7316</v>
       </c>
       <c r="G101" t="n">
-        <v>-4787269.26963732</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4084,18 +3925,15 @@
         <v>25246.7082</v>
       </c>
       <c r="G102" t="n">
-        <v>-4812515.97783732</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4117,18 +3955,15 @@
         <v>56041.4054</v>
       </c>
       <c r="G103" t="n">
-        <v>-4812515.97783732</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,18 +3985,15 @@
         <v>30649.2667</v>
       </c>
       <c r="G104" t="n">
-        <v>-4843165.24453732</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4183,18 +4015,15 @@
         <v>50000</v>
       </c>
       <c r="G105" t="n">
-        <v>-4843165.24453732</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4216,18 +4045,15 @@
         <v>152080.0055</v>
       </c>
       <c r="G106" t="n">
-        <v>-4843165.24453732</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4249,18 +4075,15 @@
         <v>22755.8682</v>
       </c>
       <c r="G107" t="n">
-        <v>-4843165.24453732</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4282,18 +4105,15 @@
         <v>118151.8624</v>
       </c>
       <c r="G108" t="n">
-        <v>-4725013.38213732</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4315,18 +4135,15 @@
         <v>213172.8167</v>
       </c>
       <c r="G109" t="n">
-        <v>-4938186.19883732</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4348,18 +4165,15 @@
         <v>326.1572</v>
       </c>
       <c r="G110" t="n">
-        <v>-4937860.04163732</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4381,18 +4195,15 @@
         <v>119713.8861</v>
       </c>
       <c r="G111" t="n">
-        <v>-5057573.92773732</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4414,18 +4225,15 @@
         <v>106726.3875</v>
       </c>
       <c r="G112" t="n">
-        <v>-5057573.92773732</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4447,18 +4255,15 @@
         <v>74297.8569</v>
       </c>
       <c r="G113" t="n">
-        <v>-5057573.92773732</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4480,18 +4285,15 @@
         <v>144138.4602</v>
       </c>
       <c r="G114" t="n">
-        <v>-5057573.92773732</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4513,18 +4315,15 @@
         <v>70000</v>
       </c>
       <c r="G115" t="n">
-        <v>-5057573.92773732</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4546,18 +4345,15 @@
         <v>107260.5359</v>
       </c>
       <c r="G116" t="n">
-        <v>-4950313.39183732</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4579,18 +4375,15 @@
         <v>550233.8367</v>
       </c>
       <c r="G117" t="n">
-        <v>-4950313.39183732</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4612,18 +4405,15 @@
         <v>10000</v>
       </c>
       <c r="G118" t="n">
-        <v>-4950313.39183732</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4645,18 +4435,15 @@
         <v>9994.3704</v>
       </c>
       <c r="G119" t="n">
-        <v>-4940319.02143732</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4678,18 +4465,15 @@
         <v>9994.3704</v>
       </c>
       <c r="G120" t="n">
-        <v>-4950313.39183732</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4711,18 +4495,15 @@
         <v>1069.623517276</v>
       </c>
       <c r="G121" t="n">
-        <v>-4949243.768320045</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4744,18 +4525,15 @@
         <v>40538.9018</v>
       </c>
       <c r="G122" t="n">
-        <v>-4989782.670120045</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4777,18 +4555,15 @@
         <v>198.9849</v>
       </c>
       <c r="G123" t="n">
-        <v>-4989782.670120045</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4810,18 +4585,15 @@
         <v>48834.6513</v>
       </c>
       <c r="G124" t="n">
-        <v>-5038617.321420045</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4843,18 +4615,15 @@
         <v>19587.2609</v>
       </c>
       <c r="G125" t="n">
-        <v>-5058204.582320045</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4876,18 +4645,15 @@
         <v>45000</v>
       </c>
       <c r="G126" t="n">
-        <v>-5058204.582320045</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4909,18 +4675,15 @@
         <v>84302.2586</v>
       </c>
       <c r="G127" t="n">
-        <v>-5142506.840920045</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4942,18 +4705,15 @@
         <v>100621.8016</v>
       </c>
       <c r="G128" t="n">
-        <v>-5142506.840920045</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4975,18 +4735,15 @@
         <v>45000</v>
       </c>
       <c r="G129" t="n">
-        <v>-5097506.840920045</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5008,18 +4765,15 @@
         <v>9801.015100000001</v>
       </c>
       <c r="G130" t="n">
-        <v>-5087705.825820045</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5041,18 +4795,15 @@
         <v>70681.49770000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-5087705.825820045</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5074,18 +4825,15 @@
         <v>45000</v>
       </c>
       <c r="G132" t="n">
-        <v>-5132705.825820045</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5107,18 +4855,15 @@
         <v>35568.3173</v>
       </c>
       <c r="G133" t="n">
-        <v>-5097137.508520044</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5140,18 +4885,15 @@
         <v>17388.9629</v>
       </c>
       <c r="G134" t="n">
-        <v>-5097137.508520044</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5173,18 +4915,15 @@
         <v>7401.9607</v>
       </c>
       <c r="G135" t="n">
-        <v>-5097137.508520044</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5206,18 +4945,15 @@
         <v>45000</v>
       </c>
       <c r="G136" t="n">
-        <v>-5142137.508520044</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5239,18 +4975,15 @@
         <v>1191.2997</v>
       </c>
       <c r="G137" t="n">
-        <v>-5142137.508520044</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5272,18 +5005,15 @@
         <v>57824.3267</v>
       </c>
       <c r="G138" t="n">
-        <v>-5142137.508520044</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5305,18 +5035,15 @@
         <v>19068.7702</v>
       </c>
       <c r="G139" t="n">
-        <v>-5142137.508520044</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5338,18 +5065,15 @@
         <v>54201.2282</v>
       </c>
       <c r="G140" t="n">
-        <v>-5196338.736720044</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5371,18 +5095,15 @@
         <v>65587.18949999999</v>
       </c>
       <c r="G141" t="n">
-        <v>-5130751.547220044</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5404,18 +5125,15 @@
         <v>123627.4341</v>
       </c>
       <c r="G142" t="n">
-        <v>-5007124.113120044</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5437,18 +5155,19 @@
         <v>54058.9955</v>
       </c>
       <c r="G143" t="n">
-        <v>-5061183.108620044</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5470,18 +5189,21 @@
         <v>22148.3379</v>
       </c>
       <c r="G144" t="n">
-        <v>-5039034.770720044</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5503,18 +5225,23 @@
         <v>103649.0197</v>
       </c>
       <c r="G145" t="n">
-        <v>-4935385.751020044</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5536,18 +5263,21 @@
         <v>121566.5688</v>
       </c>
       <c r="G146" t="n">
-        <v>-5056952.319820044</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5569,18 +5299,21 @@
         <v>16102.4813</v>
       </c>
       <c r="G147" t="n">
-        <v>-5040849.838520044</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5602,18 +5335,21 @@
         <v>45000</v>
       </c>
       <c r="G148" t="n">
-        <v>-5085849.838520044</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5635,18 +5371,21 @@
         <v>260</v>
       </c>
       <c r="G149" t="n">
-        <v>-5085589.838520044</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5668,18 +5407,21 @@
         <v>45000</v>
       </c>
       <c r="G150" t="n">
-        <v>-5130589.838520044</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5701,18 +5443,21 @@
         <v>245000</v>
       </c>
       <c r="G151" t="n">
-        <v>-4885589.838520044</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5734,18 +5479,21 @@
         <v>322039.0271</v>
       </c>
       <c r="G152" t="n">
-        <v>-5207628.865620043</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5767,18 +5515,21 @@
         <v>71408.1338</v>
       </c>
       <c r="G153" t="n">
-        <v>-5207628.865620043</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5800,18 +5551,23 @@
         <v>85592.8737</v>
       </c>
       <c r="G154" t="n">
-        <v>-5207628.865620043</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>1.898</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5833,22 +5589,23 @@
         <v>61075.2647</v>
       </c>
       <c r="G155" t="n">
-        <v>-5207628.865620043</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>1.898</v>
       </c>
       <c r="I155" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5870,26 +5627,23 @@
         <v>429503.0221</v>
       </c>
       <c r="G156" t="n">
-        <v>-4778125.843520043</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>1.898</v>
       </c>
       <c r="I156" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5911,24 +5665,21 @@
         <v>1024484.5339</v>
       </c>
       <c r="G157" t="n">
-        <v>-5802610.377420044</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
